--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -543,10 +543,10 @@
         <v>7.204333999999999</v>
       </c>
       <c r="I2">
-        <v>0.5723125574599714</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="J2">
-        <v>0.5723125574599716</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N2">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O2">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P2">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q2">
-        <v>74.42464455072889</v>
+        <v>84.16319028771844</v>
       </c>
       <c r="R2">
-        <v>669.82180095656</v>
+        <v>757.468712589466</v>
       </c>
       <c r="S2">
-        <v>0.2059822703629997</v>
+        <v>0.1705085010928244</v>
       </c>
       <c r="T2">
-        <v>0.2059822703629997</v>
+        <v>0.1705085010928244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>7.204333999999999</v>
       </c>
       <c r="I3">
-        <v>0.5723125574599714</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="J3">
-        <v>0.5723125574599716</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q3">
         <v>71.83506030261533</v>
@@ -635,10 +635,10 @@
         <v>646.5155427235379</v>
       </c>
       <c r="S3">
-        <v>0.1988151761035288</v>
+        <v>0.1455326065497182</v>
       </c>
       <c r="T3">
-        <v>0.1988151761035288</v>
+        <v>0.1455326065497182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>7.204333999999999</v>
       </c>
       <c r="I4">
-        <v>0.5723125574599714</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="J4">
-        <v>0.5723125574599716</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N4">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O4">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P4">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q4">
-        <v>14.53766400171466</v>
+        <v>21.40102087590244</v>
       </c>
       <c r="R4">
-        <v>130.838976015432</v>
+        <v>192.609187883122</v>
       </c>
       <c r="S4">
-        <v>0.04023534213598487</v>
+        <v>0.04335691148270149</v>
       </c>
       <c r="T4">
-        <v>0.04023534213598487</v>
+        <v>0.04335691148270147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>7.204333999999999</v>
       </c>
       <c r="I5">
-        <v>0.5723125574599714</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="J5">
-        <v>0.5723125574599716</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N5">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q5">
-        <v>45.988188881604</v>
+        <v>42.65650539970778</v>
       </c>
       <c r="R5">
-        <v>413.893699934436</v>
+        <v>383.90854859737</v>
       </c>
       <c r="S5">
-        <v>0.1272797688574581</v>
+        <v>0.08641897690305954</v>
       </c>
       <c r="T5">
-        <v>0.1272797688574581</v>
+        <v>0.08641897690305951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8143563333333333</v>
+        <v>1.399743666666667</v>
       </c>
       <c r="H6">
-        <v>2.443069</v>
+        <v>4.199231</v>
       </c>
       <c r="I6">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146963</v>
       </c>
       <c r="J6">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N6">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O6">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P6">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q6">
-        <v>25.23821659821778</v>
+        <v>49.05667584471878</v>
       </c>
       <c r="R6">
-        <v>227.14394938396</v>
+        <v>441.5100826024691</v>
       </c>
       <c r="S6">
-        <v>0.0698508563419552</v>
+        <v>0.09938525664586378</v>
       </c>
       <c r="T6">
-        <v>0.06985085634195519</v>
+        <v>0.09938525664586374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8143563333333333</v>
+        <v>1.399743666666667</v>
       </c>
       <c r="H7">
-        <v>2.443069</v>
+        <v>4.199231</v>
       </c>
       <c r="I7">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146963</v>
       </c>
       <c r="J7">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q7">
-        <v>24.36006006085367</v>
+        <v>41.87090883204633</v>
       </c>
       <c r="R7">
-        <v>219.240540547683</v>
+        <v>376.838179488417</v>
       </c>
       <c r="S7">
-        <v>0.06742041574808609</v>
+        <v>0.08482741540500204</v>
       </c>
       <c r="T7">
-        <v>0.06742041574808609</v>
+        <v>0.08482741540500199</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8143563333333333</v>
+        <v>1.399743666666667</v>
       </c>
       <c r="H8">
-        <v>2.443069</v>
+        <v>4.199231</v>
       </c>
       <c r="I8">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146963</v>
       </c>
       <c r="J8">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146962</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N8">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O8">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P8">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q8">
-        <v>4.929881964801332</v>
+        <v>12.47413436047478</v>
       </c>
       <c r="R8">
-        <v>44.36893768321199</v>
+        <v>112.267209244273</v>
       </c>
       <c r="S8">
-        <v>0.01364424762605654</v>
+        <v>0.02527168878655766</v>
       </c>
       <c r="T8">
-        <v>0.01364424762605654</v>
+        <v>0.02527168878655765</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8143563333333333</v>
+        <v>1.399743666666667</v>
       </c>
       <c r="H9">
-        <v>2.443069</v>
+        <v>4.199231</v>
       </c>
       <c r="I9">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146963</v>
       </c>
       <c r="J9">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146962</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N9">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q9">
-        <v>15.595101313014</v>
+        <v>24.86343912235611</v>
       </c>
       <c r="R9">
-        <v>140.355911817126</v>
+        <v>223.770952101205</v>
       </c>
       <c r="S9">
-        <v>0.04316197133875545</v>
+        <v>0.05037151897727279</v>
       </c>
       <c r="T9">
-        <v>0.04316197133875545</v>
+        <v>0.05037151897727278</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9802360000000001</v>
+        <v>1.585427</v>
       </c>
       <c r="H10">
-        <v>2.940708</v>
+        <v>4.756281</v>
       </c>
       <c r="I10">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="J10">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N10">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O10">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P10">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q10">
-        <v>30.37909508741334</v>
+        <v>55.56430099782433</v>
       </c>
       <c r="R10">
-        <v>273.41185578672</v>
+        <v>500.078708980419</v>
       </c>
       <c r="S10">
-        <v>0.08407907105842627</v>
+        <v>0.1125692318105019</v>
       </c>
       <c r="T10">
-        <v>0.08407907105842626</v>
+        <v>0.1125692318105018</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9802360000000001</v>
+        <v>1.585427</v>
       </c>
       <c r="H11">
-        <v>2.940708</v>
+        <v>4.756281</v>
       </c>
       <c r="I11">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="J11">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q11">
-        <v>29.322063151484</v>
+        <v>47.425304330863</v>
       </c>
       <c r="R11">
-        <v>263.898568363356</v>
+        <v>426.827738977767</v>
       </c>
       <c r="S11">
-        <v>0.08115356379771622</v>
+        <v>0.0960802166325021</v>
       </c>
       <c r="T11">
-        <v>0.08115356379771622</v>
+        <v>0.09608021663250207</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9802360000000001</v>
+        <v>1.585427</v>
       </c>
       <c r="H12">
-        <v>2.940708</v>
+        <v>4.756281</v>
       </c>
       <c r="I12">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="J12">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N12">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O12">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P12">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q12">
-        <v>5.934070356975999</v>
+        <v>14.12889365938033</v>
       </c>
       <c r="R12">
-        <v>53.40663321278399</v>
+        <v>127.160042934423</v>
       </c>
       <c r="S12">
-        <v>0.01642350181182991</v>
+        <v>0.02862411075109162</v>
       </c>
       <c r="T12">
-        <v>0.01642350181182991</v>
+        <v>0.02862411075109161</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9802360000000001</v>
+        <v>1.585427</v>
       </c>
       <c r="H13">
-        <v>2.940708</v>
+        <v>4.756281</v>
       </c>
       <c r="I13">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="J13">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N13">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q13">
-        <v>18.77173309144801</v>
+        <v>28.16170462932833</v>
       </c>
       <c r="R13">
-        <v>168.945597823032</v>
+        <v>253.455341663955</v>
       </c>
       <c r="S13">
-        <v>0.05195381481720282</v>
+        <v>0.05705356496290441</v>
       </c>
       <c r="T13">
-        <v>0.05195381481720281</v>
+        <v>0.05705356496290439</v>
       </c>
     </row>
   </sheetData>
